--- a/docs/source/_static/reports/IFDAT_SNAPSHOT_REPORT.xlsx
+++ b/docs/source/_static/reports/IFDAT_SNAPSHOT_REPORT.xlsx
@@ -600,7 +600,7 @@
         <is>
           <t>Μονάδες Παροχής Στοιχείων
 IFDAT
-ΗΜΕΡΟΜΗΝΙΑ ΑΝΑΦΟΡΑΣ: 2025-06-24</t>
+ΗΜΕΡΟΜΗΝΙΑ ΑΝΑΦΟΡΑΣ: 2025-06-27</t>
         </is>
       </c>
       <c r="D1" s="1" t="n"/>
